--- a/Права Пользователей.xlsx
+++ b/Права Пользователей.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Рабочий</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>all_app_inspection</t>
+  </si>
+  <si>
+    <t>inspect</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,18 +342,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,6 +372,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -682,42 +688,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" customHeight="1">
       <c r="A3" s="5"/>
@@ -914,12 +920,12 @@
       <c r="G12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -931,27 +937,27 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" customHeight="1">
       <c r="A15" s="7"/>
@@ -967,12 +973,12 @@
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -984,8 +990,8 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -999,8 +1005,8 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1016,8 +1022,8 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1031,8 +1037,8 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1054,7 +1060,7 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -1064,7 +1070,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -1076,7 +1082,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="7" t="s">
@@ -1086,7 +1092,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -1096,7 +1102,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1106,35 +1112,39 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
       <c r="A29" s="2"/>
@@ -1142,7 +1152,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
       <c r="A30" s="2"/>
@@ -1150,7 +1160,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
       <c r="A31" s="2"/>
@@ -1158,7 +1168,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
       <c r="A32" s="2"/>
@@ -1166,7 +1176,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="2"/>
@@ -1174,7 +1184,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="2"/>
@@ -1182,7 +1192,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="2"/>
@@ -1190,7 +1200,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="2"/>
@@ -1198,7 +1208,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="A37" s="2"/>
@@ -1206,7 +1216,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="2"/>
@@ -1214,7 +1224,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="A39" s="2"/>
@@ -1222,7 +1232,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1">
       <c r="A40" s="2"/>
@@ -1230,7 +1240,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
       <c r="A41" s="2"/>
@@ -1238,7 +1248,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1">
       <c r="A42" s="2"/>
@@ -1246,7 +1256,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="2"/>
@@ -1254,7 +1264,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1">
       <c r="A44" s="2"/>
@@ -1262,7 +1272,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1">
       <c r="A45" s="2"/>
@@ -1270,7 +1280,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
       <c r="A46" s="2"/>
@@ -1278,7 +1288,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
       <c r="A47" s="2"/>
@@ -1286,7 +1296,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
       <c r="A48" s="2"/>
@@ -1294,7 +1304,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Права Пользователей.xlsx
+++ b/Права Пользователей.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>

--- a/Права Пользователей.xlsx
+++ b/Права Пользователей.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Рабочий</t>
   </si>
@@ -78,9 +78,6 @@
     <t>animal_info</t>
   </si>
   <si>
-    <t>check_animal</t>
-  </si>
-  <si>
     <t>employee_info</t>
   </si>
   <si>
@@ -153,22 +150,25 @@
     <t>EXECUTE - исполнение</t>
   </si>
   <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>get_weighing_history</t>
+  </si>
+  <si>
+    <t>all_app_inspection</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>get_weighing_history</t>
-  </si>
-  <si>
-    <t>all_app_inspection</t>
-  </si>
-  <si>
-    <t>inspect</t>
+    <t>all_app_change_feed</t>
+  </si>
+  <si>
+    <t>change_feed</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,27 +351,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -689,41 +684,41 @@
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="G2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" customHeight="1">
       <c r="A3" s="5"/>
@@ -740,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
@@ -762,18 +757,18 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -781,18 +776,18 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -803,15 +798,15 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -819,20 +814,20 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -840,18 +835,20 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -862,15 +859,17 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -878,18 +877,18 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -900,13 +899,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -917,15 +916,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -933,31 +932,33 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" customHeight="1">
       <c r="A15" s="7"/>
@@ -973,12 +974,14 @@
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="F15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -986,12 +989,12 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1005,8 +1008,8 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1018,12 +1021,12 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1037,52 +1040,41 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="F19" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="7" t="s">
@@ -1092,7 +1084,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -1102,97 +1094,97 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="17"/>
+      <c r="A26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="2"/>
@@ -1297,14 +1289,6 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Права Пользователей.xlsx
+++ b/Права Пользователей.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>Рабочий</t>
   </si>
@@ -169,13 +169,40 @@
   </si>
   <si>
     <t>change_feed</t>
+  </si>
+  <si>
+    <t>current_weight</t>
+  </si>
+  <si>
+    <t>all_app_write_off</t>
+  </si>
+  <si>
+    <t>write_off_animals</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>updateSalary</t>
+  </si>
+  <si>
+    <t>updateInfoEmployee</t>
+  </si>
+  <si>
+    <t>rm_employee</t>
+  </si>
+  <si>
+    <t>update_application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +237,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -321,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,9 +385,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,6 +400,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,6 +421,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент1" xfId="1" builtinId="30"/>
@@ -669,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -704,21 +745,21 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" customHeight="1">
       <c r="A3" s="5"/>
@@ -755,20 +796,24 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -781,13 +826,15 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -798,15 +845,15 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -816,39 +863,43 @@
       <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="H8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -856,39 +907,45 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -899,13 +956,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -916,49 +973,61 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="37.5" customHeight="1">
       <c r="A15" s="7"/>
@@ -974,31 +1043,37 @@
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="G15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -1007,30 +1082,38 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1">
       <c r="A19" s="7" t="s">
@@ -1039,20 +1122,34 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -1063,18 +1160,32 @@
         <v>41</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="7" t="s">
@@ -1082,109 +1193,154 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="2"/>
